--- a/medicine/Enfance/Chasseur_de_fantômes_(roman)/Chasseur_de_fantômes_(roman).xlsx
+++ b/medicine/Enfance/Chasseur_de_fantômes_(roman)/Chasseur_de_fantômes_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chasseur_de_fant%C3%B4mes_(roman)</t>
+          <t>Chasseur_de_fantômes_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chasseur de fantômes (Ghost Hunter) est le sixième et dernier tome de la série Chroniques des temps obscurs écrite par Michelle Paver, et publié originellement en 2009 puis l'année suivante en France. Il est traduit en français par Blandine Longre.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chasseur_de_fant%C3%B4mes_(roman)</t>
+          <t>Chasseur_de_fantômes_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un froid immense s'est abattu sur la Forêt. Eostra, la dernière mangeuse d'âme, a figé dans la glace le monde de Torak, Renn et Loup, pour mieux les y emprisonner. Elle envoie aux clans la maladie des ombres, qui paralyse le cœur des hommes. Alors Torak se met en marche vers la Montagne des Morts où Eostra se cache en attendant de prendre son âme. Il veut l'affronter, seul. C'est compter sans Renn et Loup qui se lancent à sa poursuite, au péril de leurs vies.
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse   Portail de la fantasy et du fantastique   Portail des années 2000                  </t>
